--- a/LCA7.xlsx
+++ b/LCA7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\EDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85608218-69C0-4EF0-81B4-15958B41A9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD96BCC-5694-405A-B7B8-830C49B60CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{4C48D413-9E96-4308-BFD5-76186D32EEC7}"/>
   </bookViews>
@@ -1317,16 +1317,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
